--- a/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V3.0.xlsx
+++ b/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V3.0.xlsx
@@ -3,17 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F723F-8993-4E37-9A16-1D28AFA6F296}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917E0A10-55E1-431C-B3D5-9F81DACE10D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -347,17 +356,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,6 +383,5498 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Optimus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t>mesurée</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimus</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A286-490A-9E38-28CE4AE9CBBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A286-490A-9E38-28CE4AE9CBBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A286-490A-9E38-28CE4AE9CBBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A286-490A-9E38-28CE4AE9CBBE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$58:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>83.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A286-490A-9E38-28CE4AE9CBBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Invictus : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>10'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-67EB-4F7B-9B4B-F384C33D7990}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-67EB-4F7B-9B4B-F384C33D7990}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-67EB-4F7B-9B4B-F384C33D7990}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-67EB-4F7B-9B4B-F384C33D7990}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$58:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-67EB-4F7B-9B4B-F384C33D7990}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Invictus : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>10'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1146-4F81-A7B8-90995B46971E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1146-4F81-A7B8-90995B46971E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1146-4F81-A7B8-90995B46971E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1146-4F81-A7B8-90995B46971E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$58:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1146-4F81-A7B8-90995B46971E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Invictus : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>13'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-813E-4721-B80F-0CA6186057E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-813E-4721-B80F-0CA6186057E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-813E-4721-B80F-0CA6186057E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-813E-4721-B80F-0CA6186057E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$58:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-813E-4721-B80F-0CA6186057E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Invictus : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>13'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-02C8-435F-A6E6-66330DAE4A4A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-02C8-435F-A6E6-66330DAE4A4A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-02C8-435F-A6E6-66330DAE4A4A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-02C8-435F-A6E6-66330DAE4A4A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$58:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-02C8-435F-A6E6-66330DAE4A4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Optimus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t>estimée</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0BA9-4B21-9807-B98C16BE1A9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0BA9-4B21-9807-B98C16BE1A9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0BA9-4B21-9807-B98C16BE1A9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0BA9-4B21-9807-B98C16BE1A9C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$58:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.272999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0BA9-4B21-9807-B98C16BE1A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507A76EC-2183-4100-AFE9-4606E8FD78C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD778D-D14F-4B2C-A7E3-578A5C270252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394F8016-8C9B-44D9-8179-832D635D35BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E9E2EC-C1BF-448B-8467-32B84E7A590B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0068B281-6BAF-4098-9648-5AB7F4440871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B293C9-3E0A-425A-B6BA-7851ABF66FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="F6">
+            <v>2000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>14000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>14000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>3000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,6 +6151,8 @@
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,10 +6175,10 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -788,7 +6291,7 @@
         <v>11.608000000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>11.608000000000001</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -805,7 +6308,8 @@
         <v>83.978999999999999</v>
       </c>
       <c r="E12" s="8">
-        <v>87.507999999999996</v>
+        <f>SUM(E6:E11)</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -824,14 +6328,14 @@
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -945,10 +6449,10 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="F23" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1022,13 +6526,16 @@
         <v>47.74</v>
       </c>
       <c r="D27" s="8">
+        <f>D19+D20+D21+D22+D23+D24</f>
         <v>39</v>
       </c>
       <c r="E27" s="8">
-        <v>50.829000000000001</v>
+        <f>E19+E20+E21+E22+E23+E24</f>
+        <v>50.84</v>
       </c>
       <c r="F27" s="8">
-        <v>66.828999999999994</v>
+        <f>F19+F20+F21+F22+F23+F24+F25+F26</f>
+        <v>66.84</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1047,14 +6554,14 @@
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
@@ -1088,8 +6595,9 @@
       <c r="E33" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="F33" s="21">
-        <v>3.4</v>
+      <c r="F33" s="19">
+        <f>3.4*4</f>
+        <v>13.6</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1102,9 +6610,9 @@
       <c r="C34" s="12">
         <v>3.8</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
@@ -1116,9 +6624,9 @@
       <c r="C35" s="12">
         <v>23.4</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -1130,9 +6638,9 @@
       <c r="C36" s="12">
         <v>3.4</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -1144,9 +6652,9 @@
       <c r="C37" s="12">
         <v>5.2</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
@@ -1158,9 +6666,9 @@
       <c r="C38" s="12">
         <v>1.9</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
@@ -1172,9 +6680,9 @@
       <c r="C39" s="12">
         <v>2.6</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
@@ -1187,13 +6695,16 @@
         <v>59.7</v>
       </c>
       <c r="D40" s="8">
+        <f t="shared" ref="D40:F40" si="0">SUM(D33:D39)</f>
         <v>19.399999999999999</v>
       </c>
       <c r="E40" s="8">
+        <f t="shared" si="0"/>
         <v>19.399999999999999</v>
       </c>
       <c r="F40" s="8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1211,10 +6722,10 @@
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,7 +6817,7 @@
         <v>10.291</v>
       </c>
       <c r="D51" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E51" s="8">
         <v>10</v>
@@ -1330,10 +6841,10 @@
       <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +6874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1382,7 +6893,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="6">
@@ -1392,23 +6903,28 @@
         <v>84.272999999999996</v>
       </c>
       <c r="D58" s="6">
+        <f>D12</f>
         <v>83.978999999999999</v>
       </c>
       <c r="E58" s="6">
-        <v>87.507999999999996</v>
+        <f>$E12</f>
+        <v>87.5</v>
       </c>
       <c r="F58" s="6">
-        <v>87.507999999999996</v>
+        <f t="shared" ref="F58:H58" si="1">$E12</f>
+        <v>87.5</v>
       </c>
       <c r="G58" s="6">
-        <v>87.507999999999996</v>
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
       <c r="H58" s="6">
-        <v>87.507999999999996</v>
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="6">
@@ -1418,23 +6934,28 @@
         <v>47.74</v>
       </c>
       <c r="D59" s="6">
+        <f>D27</f>
         <v>39</v>
       </c>
       <c r="E59" s="6">
-        <v>50.829000000000001</v>
+        <f>E27</f>
+        <v>50.84</v>
       </c>
       <c r="F59" s="6">
-        <v>66.828999999999994</v>
+        <f>F27</f>
+        <v>66.84</v>
       </c>
       <c r="G59" s="6">
-        <v>50.829000000000001</v>
+        <f>E27</f>
+        <v>50.84</v>
       </c>
       <c r="H59" s="6">
-        <v>66.828999999999994</v>
+        <f>F27</f>
+        <v>66.84</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="6">
@@ -1444,23 +6965,28 @@
         <v>59.7</v>
       </c>
       <c r="D60" s="6">
+        <f>D40</f>
         <v>19.399999999999999</v>
       </c>
       <c r="E60" s="6">
-        <v>0</v>
+        <f>$F40</f>
+        <v>13.6</v>
       </c>
       <c r="F60" s="6">
-        <v>0</v>
+        <f>$F40</f>
+        <v>13.6</v>
       </c>
       <c r="G60" s="6">
+        <f>$E40</f>
         <v>19.399999999999999</v>
       </c>
       <c r="H60" s="6">
+        <f>$E40</f>
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="6">
@@ -1470,18 +6996,23 @@
         <v>10.291</v>
       </c>
       <c r="D61" s="6">
-        <v>0</v>
+        <f>D51</f>
+        <v>10</v>
       </c>
       <c r="E61" s="6">
+        <f>$E51</f>
         <v>10</v>
       </c>
       <c r="F61" s="6">
+        <f t="shared" ref="F61:H61" si="2">$E51</f>
         <v>10</v>
       </c>
       <c r="G61" s="6">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H61" s="6">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1496,19 +7027,24 @@
         <v>202.00399999999999</v>
       </c>
       <c r="D62" s="8">
-        <v>142.37899999999999</v>
+        <f>SUM(D58:D61)</f>
+        <v>152.37899999999999</v>
       </c>
       <c r="E62" s="8">
-        <v>148.33699999999999</v>
+        <f t="shared" ref="E62:H62" si="3">SUM(E58:E61)</f>
+        <v>161.94</v>
       </c>
       <c r="F62" s="8">
-        <v>164.33699999999999</v>
+        <f t="shared" si="3"/>
+        <v>177.94</v>
       </c>
       <c r="G62" s="8">
-        <v>167.73699999999999</v>
+        <f t="shared" si="3"/>
+        <v>167.74</v>
       </c>
       <c r="H62" s="8">
-        <v>183.73699999999999</v>
+        <f t="shared" si="3"/>
+        <v>183.74</v>
       </c>
     </row>
   </sheetData>
@@ -1523,5 +7059,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V3.0.xlsx
+++ b/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_V3.0.xlsx
@@ -3,16 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917E0A10-55E1-431C-B3D5-9F81DACE10D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62D015-8032-4305-840C-9B2CE03E8801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -359,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +623,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -936,7 +933,7 @@
                   <c:v>50.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1246,7 +1243,7 @@
                   <c:v>50.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1556,7 +1553,7 @@
                   <c:v>50.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1866,7 +1863,7 @@
                   <c:v>66.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -2181,7 +2178,7 @@
                   <c:v>47.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.7</c:v>
+                  <c:v>58.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.291</c:v>
@@ -5843,40 +5840,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="F6">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>14000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>14000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>3000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6142,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6151,7 +6114,7 @@
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6583,10 +6546,10 @@
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="5">
         <v>19.399999999999999</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="5">
         <v>19.399999999999999</v>
       </c>
       <c r="D33" s="12">
@@ -6604,107 +6567,148 @@
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="12">
-        <v>4.1601999999999997</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="C34" s="5">
         <v>3.8</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="E34" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="5">
         <v>31.8</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <v>23.4</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="19">
+        <f>6.1+2.5</f>
+        <v>8.6</v>
+      </c>
+      <c r="E35" s="19">
+        <f>6.1+2.5</f>
+        <v>8.6</v>
+      </c>
+      <c r="F35" s="19">
+        <f>6.1+2.5</f>
+        <v>8.6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="12">
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="5">
         <v>3.4</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="E36" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="12">
-        <v>7.1559999999999997</v>
-      </c>
-      <c r="C37" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D37" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="F37" s="12">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="5">
         <v>0</v>
       </c>
-      <c r="C38" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="D38" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C39" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="C39" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="D39" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F39" s="12">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="8">
-        <v>71.245199999999997</v>
+        <f>SUM(B33:B39)</f>
+        <v>71.3</v>
       </c>
       <c r="C40" s="8">
-        <v>59.7</v>
+        <f>SUM(C33:C39)</f>
+        <v>58.29999999999999</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:F40" si="0">SUM(D33:D39)</f>
-        <v>19.399999999999999</v>
+        <f>SUM(D33:D39)</f>
+        <v>47.4</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="0"/>
-        <v>19.399999999999999</v>
+        <f t="shared" ref="E40:F40" si="0">SUM(E33:E39)</f>
+        <v>47.4</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6897,9 +6901,11 @@
         <v>0</v>
       </c>
       <c r="B58" s="6">
+        <f t="shared" ref="B58:C58" si="1">B12</f>
         <v>86.981999999999999</v>
       </c>
       <c r="C58" s="6">
+        <f t="shared" si="1"/>
         <v>84.272999999999996</v>
       </c>
       <c r="D58" s="6">
@@ -6911,15 +6917,15 @@
         <v>87.5</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" ref="F58:H58" si="1">$E12</f>
+        <f t="shared" ref="F58:H58" si="2">$E12</f>
         <v>87.5</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
     </row>
@@ -6928,9 +6934,11 @@
         <v>13</v>
       </c>
       <c r="B59" s="6">
+        <f t="shared" ref="B59:C59" si="3">B27</f>
         <v>65.123400000000004</v>
       </c>
       <c r="C59" s="6">
+        <f t="shared" si="3"/>
         <v>47.74</v>
       </c>
       <c r="D59" s="6">
@@ -6959,30 +6967,32 @@
         <v>26</v>
       </c>
       <c r="B60" s="6">
-        <v>71.245199999999997</v>
+        <f t="shared" ref="B60:C60" si="4">B40</f>
+        <v>71.3</v>
       </c>
       <c r="C60" s="6">
-        <v>59.7</v>
+        <f t="shared" si="4"/>
+        <v>58.29999999999999</v>
       </c>
       <c r="D60" s="6">
         <f>D40</f>
-        <v>19.399999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="E60" s="6">
         <f>$F40</f>
-        <v>13.6</v>
+        <v>41.6</v>
       </c>
       <c r="F60" s="6">
         <f>$F40</f>
-        <v>13.6</v>
+        <v>41.6</v>
       </c>
       <c r="G60" s="6">
         <f>$E40</f>
-        <v>19.399999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="H60" s="6">
         <f>$E40</f>
-        <v>19.399999999999999</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6990,9 +7000,11 @@
         <v>36</v>
       </c>
       <c r="B61" s="6">
+        <f t="shared" ref="B61:C61" si="5">B51</f>
         <v>10.3</v>
       </c>
       <c r="C61" s="6">
+        <f t="shared" si="5"/>
         <v>10.291</v>
       </c>
       <c r="D61" s="6">
@@ -7004,15 +7016,15 @@
         <v>10</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" ref="F61:H61" si="2">$E51</f>
+        <f t="shared" ref="F61:H61" si="6">$E51</f>
         <v>10</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -7028,23 +7040,23 @@
       </c>
       <c r="D62" s="8">
         <f>SUM(D58:D61)</f>
-        <v>152.37899999999999</v>
+        <v>180.37899999999999</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" ref="E62:H62" si="3">SUM(E58:E61)</f>
-        <v>161.94</v>
+        <f t="shared" ref="E62:H62" si="7">SUM(E58:E61)</f>
+        <v>189.94</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="3"/>
-        <v>177.94</v>
+        <f t="shared" si="7"/>
+        <v>205.94</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="3"/>
-        <v>167.74</v>
+        <f t="shared" si="7"/>
+        <v>195.74</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="3"/>
-        <v>183.74</v>
+        <f t="shared" si="7"/>
+        <v>211.74</v>
       </c>
     </row>
   </sheetData>
